--- a/config_1.26/prop_clear_server.xlsx
+++ b/config_1.26/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -554,7 +554,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,6 +607,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,8 +894,8 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,10 +1006,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="16">
-        <v>1611014400</v>
+        <v>1611619200</v>
       </c>
       <c r="D6" s="16">
-        <v>1611590399</v>
+        <v>1612195199</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>79</v>
@@ -1047,16 +1053,16 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1064,16 +1070,16 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1081,16 +1087,16 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1098,16 +1104,16 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1115,16 +1121,16 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1132,16 +1138,16 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1149,16 +1155,16 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1166,16 +1172,16 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1183,16 +1189,16 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>37</v>
       </c>
     </row>
